--- a/AAII_Financials/Quarterly/CULL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CULL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>CULL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1116,8 +1169,14 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1160,8 +1219,14 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1193,37 +1260,43 @@
         <v>1100</v>
       </c>
       <c r="G20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I20" s="3">
         <v>1300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1200</v>
       </c>
       <c r="J20" s="3">
         <v>1300</v>
       </c>
       <c r="K20" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L20" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="M20" s="3">
         <v>1000</v>
       </c>
       <c r="N20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1339,14 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,13 +1389,19 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E23" s="3">
         <v>1200</v>
@@ -1325,37 +1410,43 @@
         <v>1100</v>
       </c>
       <c r="G23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I23" s="3">
         <v>1300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1200</v>
       </c>
       <c r="J23" s="3">
         <v>1300</v>
       </c>
       <c r="K23" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L23" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="M23" s="3">
         <v>1000</v>
       </c>
       <c r="N23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1363,28 +1454,28 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>400</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
@@ -1393,13 +1484,19 @@
         <v>400</v>
       </c>
       <c r="O24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>400</v>
+      </c>
+      <c r="R24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1539,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1486,8 +1589,14 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1530,8 +1639,14 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1721,37 +1860,43 @@
         <v>-1100</v>
       </c>
       <c r="G32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1200</v>
       </c>
       <c r="J32" s="3">
         <v>-1300</v>
       </c>
       <c r="K32" s="3">
-        <v>-1000</v>
+        <v>-1200</v>
       </c>
       <c r="L32" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="M32" s="3">
         <v>-1000</v>
       </c>
       <c r="N32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1794,8 +1939,14 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1989,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1882,57 +2039,69 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2011,8 +2184,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2384,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2434,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>298100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>302900</v>
+      </c>
+      <c r="F54" s="3">
         <v>299500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>299600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>293400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>297200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>301800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>290200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>284200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>282900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>286300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>283900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>274100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>274500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2974,14 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2751,8 +3024,14 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,8 +3074,14 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3324,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3059,8 +3374,14 @@
       <c r="P66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3594,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3297,8 +3644,14 @@
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>53100</v>
+      </c>
+      <c r="F76" s="3">
         <v>52200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>51100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>50700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>49400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>48500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>47500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>46900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>45000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>45700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>46000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>45300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>45300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3894,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3610,8 +3999,14 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CULL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CULL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>CULL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1257,46 +1291,49 @@
         <v>1200</v>
       </c>
       <c r="F20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1300</v>
       </c>
       <c r="J20" s="3">
         <v>1300</v>
       </c>
       <c r="K20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1100</v>
       </c>
       <c r="Q20" s="3">
         <v>1100</v>
       </c>
       <c r="R20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,63 +1435,69 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E23" s="3">
         <v>1200</v>
       </c>
       <c r="F23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1300</v>
       </c>
       <c r="J23" s="3">
         <v>1300</v>
       </c>
       <c r="K23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L23" s="3">
         <v>1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1000</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1100</v>
       </c>
       <c r="Q23" s="3">
         <v>1100</v>
       </c>
       <c r="R23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
@@ -1460,34 +1506,34 @@
         <v>300</v>
       </c>
       <c r="G24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
       </c>
       <c r="I24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
       </c>
       <c r="K24" s="3">
+        <v>300</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>400</v>
       </c>
       <c r="Q24" s="3">
         <v>400</v>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1595,8 +1647,11 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1857,46 +1927,49 @@
         <v>-1200</v>
       </c>
       <c r="F32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1300</v>
       </c>
       <c r="J32" s="3">
         <v>-1300</v>
       </c>
       <c r="K32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-1100</v>
       </c>
       <c r="Q32" s="3">
         <v>-1100</v>
       </c>
       <c r="R32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>312500</v>
+      </c>
+      <c r="E54" s="3">
         <v>298100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>302900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>299500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>299600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>293400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>297200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>301800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>290200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>284200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>282900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>286300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>283900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>274100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>274500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E76" s="3">
         <v>53400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>53100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>52200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>51100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>49400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>48500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>47500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>46900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>45000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>45700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>46000</v>
-      </c>
-      <c r="P76" s="3">
-        <v>45300</v>
       </c>
       <c r="Q76" s="3">
         <v>45300</v>
       </c>
       <c r="R76" s="3">
+        <v>45300</v>
+      </c>
+      <c r="S76" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CULL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CULL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>CULL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,93 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +803,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +862,14 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1204,10 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1205,8 +1259,14 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1258,8 +1318,14 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,10 +1359,10 @@
         <v>1200</v>
       </c>
       <c r="F20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="3">
         <v>1200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1100</v>
       </c>
       <c r="H20" s="3">
         <v>1200</v>
@@ -1303,37 +1371,43 @@
         <v>1100</v>
       </c>
       <c r="J20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L20" s="3">
         <v>1300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1200</v>
       </c>
       <c r="M20" s="3">
         <v>1300</v>
       </c>
       <c r="N20" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="O20" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="P20" s="3">
         <v>1000</v>
       </c>
       <c r="Q20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S20" s="3">
         <v>1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1459,14 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,22 +1518,28 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E23" s="3">
         <v>1200</v>
       </c>
       <c r="F23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G23" s="3">
         <v>1200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1100</v>
       </c>
       <c r="H23" s="3">
         <v>1200</v>
@@ -1462,37 +1548,43 @@
         <v>1100</v>
       </c>
       <c r="J23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L23" s="3">
         <v>1300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1200</v>
       </c>
       <c r="M23" s="3">
         <v>1300</v>
       </c>
       <c r="N23" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="O23" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="P23" s="3">
         <v>1000</v>
       </c>
       <c r="Q23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S23" s="3">
         <v>1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1503,34 +1595,34 @@
         <v>300</v>
       </c>
       <c r="F24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
       </c>
       <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>300</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
-      </c>
-      <c r="N24" s="3">
-        <v>300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>400</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
@@ -1539,13 +1631,19 @@
         <v>400</v>
       </c>
       <c r="R24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>400</v>
+      </c>
+      <c r="U24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1695,14 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1650,8 +1754,14 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1703,8 +1813,14 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,10 +2067,10 @@
         <v>-1200</v>
       </c>
       <c r="F32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1100</v>
       </c>
       <c r="H32" s="3">
         <v>-1200</v>
@@ -1939,37 +2079,43 @@
         <v>-1100</v>
       </c>
       <c r="J32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1200</v>
       </c>
       <c r="M32" s="3">
         <v>-1300</v>
       </c>
       <c r="N32" s="3">
-        <v>-1000</v>
+        <v>-1200</v>
       </c>
       <c r="O32" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="P32" s="3">
         <v>-1000</v>
       </c>
       <c r="Q32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2021,8 +2167,14 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2226,14 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2127,66 +2285,78 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2399,10 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2280,8 +2454,14 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2513,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2572,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2631,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2690,14 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2749,14 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2808,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2867,14 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>326100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>330700</v>
+      </c>
+      <c r="F54" s="3">
         <v>312500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>298100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>302900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>299500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>299600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>293400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>297200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>301800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>290200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>284200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>282900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>286300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>283900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>274100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>274500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3271,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3326,14 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3385,14 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,8 +3444,14 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3503,14 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3562,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3798,14 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3541,8 +3857,14 @@
       <c r="S66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +4116,14 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3827,8 +4175,14 @@
       <c r="S72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>54500</v>
+      </c>
+      <c r="F76" s="3">
         <v>53000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>53400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>53100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>52200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>51100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>50700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>49400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>48500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>47500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>46900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>45000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>45700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>46000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>45300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>45300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4470,78 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4203,8 +4593,14 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4970,14 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +5029,14 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5288,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5547,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5606,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5665,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5722,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CULL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CULL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
   <si>
     <t>CULL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,127 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>3400</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>3300</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -809,8 +820,17 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +888,17 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +956,17 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +988,11 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1050,17 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1118,17 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1186,17 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1254,17 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,31 +1283,34 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -1265,31 +1345,40 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>2900</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
+        <v>2800</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -1324,8 +1413,17 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,75 +1445,87 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-1900</v>
       </c>
       <c r="E20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="L20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1200</v>
       </c>
       <c r="O20" s="3">
         <v>1300</v>
       </c>
       <c r="P20" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="Q20" s="3">
         <v>1200</v>
       </c>
       <c r="R20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
-        <v>1100</v>
-      </c>
       <c r="T20" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="U20" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X20" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1465,8 +1575,17 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,67 +1643,85 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G23" s="3">
         <v>900</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1200</v>
       </c>
       <c r="H23" s="3">
         <v>1200</v>
       </c>
       <c r="I23" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J23" s="3">
         <v>1200</v>
       </c>
       <c r="K23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
-        <v>1300</v>
-      </c>
       <c r="M23" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="N23" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="O23" s="3">
         <v>1300</v>
       </c>
       <c r="P23" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="Q23" s="3">
         <v>1200</v>
       </c>
       <c r="R23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S23" s="3">
         <v>1000</v>
       </c>
-      <c r="S23" s="3">
-        <v>1100</v>
-      </c>
       <c r="T23" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="U23" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X23" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1592,58 +1729,67 @@
         <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
       </c>
       <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
-        <v>200</v>
-      </c>
       <c r="K24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
       </c>
       <c r="M24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
       </c>
       <c r="O24" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
       </c>
       <c r="Q24" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="R24" s="3">
+        <v>800</v>
+      </c>
+      <c r="S24" s="3">
         <v>300</v>
-      </c>
-      <c r="S24" s="3">
-        <v>400</v>
       </c>
       <c r="T24" s="3">
         <v>400</v>
       </c>
       <c r="U24" s="3">
+        <v>300</v>
+      </c>
+      <c r="V24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>400</v>
+      </c>
+      <c r="X24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,31 +1847,40 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1760,31 +1915,40 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1819,8 +1983,17 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +2051,17 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2119,17 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2187,17 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,90 +2255,108 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>1900</v>
       </c>
       <c r="E32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="L32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-1200</v>
       </c>
       <c r="O32" s="3">
         <v>-1300</v>
       </c>
       <c r="P32" s="3">
-        <v>-1000</v>
+        <v>-1300</v>
       </c>
       <c r="Q32" s="3">
         <v>-1200</v>
       </c>
       <c r="R32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
-        <v>-1100</v>
-      </c>
       <c r="T32" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="U32" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="W32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="X32" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -2173,8 +2391,17 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,31 +2459,40 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -2291,72 +2527,90 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2632,11 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,31 +2658,34 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
+        <v>3200</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2460,31 +2720,40 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>91200</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>53900</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2519,8 +2788,17 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2856,17 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2924,17 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2992,17 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +3060,17 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,31 +3128,40 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>8500</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2873,8 +3196,17 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3264,17 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3332,17 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,31 +3400,40 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3109,8 +3468,17 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3536,85 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>376200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>334100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>331400</v>
+      </c>
+      <c r="G54" s="3">
         <v>326100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>330700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>312500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>298100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>302900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>299500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>299600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>293400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>297200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>301800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>290200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>284200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>282900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>286300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>283900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>274100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="W54" s="3">
         <v>274500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="X54" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3636,11 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3662,11 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3332,8 +3724,17 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,31 +3792,40 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3450,8 +3860,17 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,8 +3928,17 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3996,17 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +4064,17 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +4132,17 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4200,17 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,31 +4268,40 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>318400</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3">
-        <v>0</v>
+        <v>277500</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
@@ -3863,8 +4336,17 @@
       <c r="U66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4368,11 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4430,17 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4498,17 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4566,17 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,31 +4634,40 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>50500</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>49600</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -4181,8 +4702,17 @@
       <c r="U72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4770,17 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4838,17 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4906,85 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>56600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>56900</v>
+      </c>
+      <c r="G76" s="3">
         <v>55600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>54500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>53000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>53400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>53100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>52200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>51100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>50700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>49400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>48500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>47500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>46900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>45000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>45700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>46000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>45300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>45300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,95 +5042,113 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -4599,8 +5183,17 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,31 +5215,34 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4681,8 +5277,17 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5345,17 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5413,17 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5481,17 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5549,17 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,31 +5617,40 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -5035,8 +5685,17 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,31 +5717,34 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5117,8 +5779,17 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5847,17 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,31 +5915,40 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-5200</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-5900</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5294,8 +5983,17 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +6015,11 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5326,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -5376,8 +6077,17 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +6145,17 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +6213,17 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,31 +6281,40 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>40600</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>2100</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -5612,8 +6349,17 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,31 +6417,40 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>-3200</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -5728,6 +6483,15 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CULL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CULL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>CULL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,120 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E8" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F8" s="3">
         <v>3300</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
@@ -787,8 +791,8 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -829,8 +833,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,20 +1312,21 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
-        <v>500</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1312,8 +1339,8 @@
       <c r="J17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
+      <c r="K17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -1354,8 +1381,11 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,11 +1393,11 @@
         <v>2900</v>
       </c>
       <c r="E18" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F18" s="3">
         <v>2800</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1380,8 +1410,8 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1422,8 +1452,11 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,20 +1481,21 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1900</v>
+        <v>-3600</v>
       </c>
       <c r="E20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1800</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1474,62 +1508,65 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1300</v>
       </c>
       <c r="P20" s="3">
         <v>1300</v>
       </c>
       <c r="Q20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1000</v>
-      </c>
-      <c r="V20" s="3">
-        <v>1100</v>
       </c>
       <c r="W20" s="3">
         <v>1100</v>
       </c>
       <c r="X20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F21" s="3">
         <v>1100</v>
       </c>
-      <c r="E21" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1584,8 +1621,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,99 +1692,105 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1100</v>
+        <v>-700</v>
       </c>
       <c r="E23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1200</v>
       </c>
       <c r="K23" s="3">
         <v>1200</v>
       </c>
       <c r="L23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1300</v>
       </c>
       <c r="P23" s="3">
         <v>1300</v>
       </c>
       <c r="Q23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R23" s="3">
         <v>1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1000</v>
-      </c>
-      <c r="V23" s="3">
-        <v>1100</v>
       </c>
       <c r="W23" s="3">
         <v>1100</v>
       </c>
       <c r="X23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
+        <v>300</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>300</v>
       </c>
       <c r="K24" s="3">
         <v>300</v>
@@ -1753,34 +1799,34 @@
         <v>300</v>
       </c>
       <c r="M24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
       </c>
       <c r="O24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
       </c>
       <c r="Q24" s="3">
+        <v>300</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
-      </c>
-      <c r="V24" s="3">
-        <v>400</v>
       </c>
       <c r="W24" s="3">
         <v>400</v>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,20 +1905,23 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
-        <v>800</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1882,8 +1934,8 @@
       <c r="J26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
+      <c r="K26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -1924,20 +1976,23 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
-        <v>800</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1950,8 +2005,8 @@
       <c r="J27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
+      <c r="K27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -1992,8 +2047,11 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,20 +2331,23 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1900</v>
+        <v>3600</v>
       </c>
       <c r="E32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F32" s="3">
         <v>1800</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2290,62 +2360,65 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1300</v>
       </c>
       <c r="P32" s="3">
         <v>-1300</v>
       </c>
       <c r="Q32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-1100</v>
       </c>
       <c r="W32" s="3">
         <v>-1100</v>
       </c>
       <c r="X32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
-        <v>800</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2358,8 +2431,8 @@
       <c r="J33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
+      <c r="K33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -2400,8 +2473,11 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,20 +2544,23 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
-        <v>800</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2494,8 +2573,8 @@
       <c r="J35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
+      <c r="K35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -2536,81 +2615,87 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,20 +2747,21 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3200</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2687,8 +2774,8 @@
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2729,20 +2816,23 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>86600</v>
+      </c>
+      <c r="E42" s="3">
         <v>91200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>53900</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2755,8 +2845,8 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3100,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,20 +3242,23 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E48" s="3">
         <v>8700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8500</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3163,8 +3271,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,19 +3526,22 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>1000</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -3435,8 +3555,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>372600</v>
+      </c>
+      <c r="E54" s="3">
         <v>376200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>334100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>331400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>326100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>330700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>312500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>298100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>302900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>299500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>299600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>293400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>297200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>301800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>290200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>284200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>282900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>286300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>283900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>274100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>274500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,31 +3795,32 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,34 +3935,37 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3869,8 +4006,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,20 +4432,23 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>273800</v>
+      </c>
+      <c r="E66" s="3">
         <v>318400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>277500</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4303,8 +4461,8 @@
       <c r="J66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
+      <c r="K66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
@@ -4345,8 +4503,11 @@
       <c r="X66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,20 +4814,23 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E72" s="3">
         <v>50500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>49600</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4669,8 +4843,8 @@
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
+      <c r="K72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
@@ -4711,8 +4885,11 @@
       <c r="X72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>98800</v>
+      </c>
+      <c r="E76" s="3">
         <v>57800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>56600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>56900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>55600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>54500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>53000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>53400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>53100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>51100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>50700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>49400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>48500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>47500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>46900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>45000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>45700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>46000</v>
-      </c>
-      <c r="V76" s="3">
-        <v>45300</v>
       </c>
       <c r="W76" s="3">
         <v>45300</v>
       </c>
       <c r="X76" s="3">
+        <v>45300</v>
+      </c>
+      <c r="Y76" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,93 +5240,99 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
-        <v>800</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>4</v>
       </c>
@@ -5150,8 +5345,8 @@
       <c r="J81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
+      <c r="K81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -5192,8 +5387,11 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5227,11 +5426,11 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
@@ -5244,8 +5443,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,20 +5840,23 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F89" s="3">
         <v>700</v>
       </c>
-      <c r="E89" s="3">
-        <v>700</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>4</v>
       </c>
@@ -5652,8 +5869,8 @@
       <c r="J89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -5694,8 +5911,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,20 +5940,21 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5746,8 +5967,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,20 +6151,23 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5200</v>
+        <v>-1500</v>
       </c>
       <c r="E94" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-5900</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5950,8 +6180,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6030,7 +6264,7 @@
         <v>-900</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,20 +6533,23 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>40600</v>
+        <v>-4900</v>
       </c>
       <c r="E100" s="3">
+        <v>42600</v>
+      </c>
+      <c r="F100" s="3">
         <v>2100</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
@@ -6316,8 +6562,8 @@
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -6358,8 +6604,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,20 +6675,23 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>36000</v>
+        <v>-3500</v>
       </c>
       <c r="E102" s="3">
+        <v>32800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3200</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>4</v>
       </c>
@@ -6452,8 +6704,8 @@
       <c r="J102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -6492,6 +6744,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CULL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CULL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
   <si>
     <t>CULL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,132 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>3300</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>6700</v>
+        <v>3400</v>
       </c>
       <c r="F8" s="3">
         <v>3300</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
+      <c r="G8" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3300</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
@@ -794,11 +801,11 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -836,8 +843,14 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,26 +1364,28 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1342,11 +1395,11 @@
       <c r="K17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
+      <c r="L17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -1384,26 +1437,32 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F18" s="3">
         <v>2900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>5700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>2800</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1413,11 +1472,11 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -1455,8 +1514,14 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,26 +1547,28 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1800</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1511,11 +1578,11 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1100</v>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N20" s="3">
         <v>1200</v>
@@ -1524,55 +1591,61 @@
         <v>1100</v>
       </c>
       <c r="P20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R20" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1200</v>
       </c>
       <c r="S20" s="3">
         <v>1300</v>
       </c>
       <c r="T20" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="U20" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="V20" s="3">
         <v>1000</v>
       </c>
       <c r="W20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y20" s="3">
         <v>1100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>1100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1624,8 +1697,14 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,40 +1774,46 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1000</v>
       </c>
       <c r="K23" s="3">
         <v>1200</v>
       </c>
       <c r="L23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M23" s="3">
         <v>1200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1100</v>
       </c>
       <c r="N23" s="3">
         <v>1200</v>
@@ -1737,51 +1822,57 @@
         <v>1100</v>
       </c>
       <c r="P23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R23" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1200</v>
       </c>
       <c r="S23" s="3">
         <v>1300</v>
       </c>
       <c r="T23" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="U23" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="V23" s="3">
         <v>1000</v>
       </c>
       <c r="W23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y23" s="3">
         <v>1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
@@ -1796,34 +1887,34 @@
         <v>300</v>
       </c>
       <c r="L24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
       <c r="N24" s="3">
+        <v>300</v>
+      </c>
+      <c r="O24" s="3">
+        <v>300</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>800</v>
-      </c>
-      <c r="T24" s="3">
-        <v>300</v>
-      </c>
-      <c r="U24" s="3">
-        <v>400</v>
       </c>
       <c r="V24" s="3">
         <v>300</v>
@@ -1832,13 +1923,19 @@
         <v>400</v>
       </c>
       <c r="X24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,26 +2005,32 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1937,11 +2040,11 @@
       <c r="K26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
@@ -1979,26 +2082,32 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>4</v>
       </c>
@@ -2008,11 +2117,11 @@
       <c r="K27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
+      <c r="L27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -2050,8 +2159,14 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,26 +2467,32 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F32" s="3">
         <v>3600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1800</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2363,11 +2502,11 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-1100</v>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N32" s="3">
         <v>-1200</v>
@@ -2376,55 +2515,61 @@
         <v>-1100</v>
       </c>
       <c r="P32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-1200</v>
       </c>
       <c r="S32" s="3">
         <v>-1300</v>
       </c>
       <c r="T32" s="3">
-        <v>-1000</v>
+        <v>-1200</v>
       </c>
       <c r="U32" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="V32" s="3">
         <v>-1000</v>
       </c>
       <c r="W32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="X32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-1100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2434,11 +2579,11 @@
       <c r="K33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
+      <c r="L33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -2476,8 +2621,14 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,26 +2698,32 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2576,11 +2733,11 @@
       <c r="K35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
+      <c r="L35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -2618,84 +2775,96 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,26 +2919,28 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F41" s="3">
         <v>3100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2777,11 +2950,11 @@
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2819,26 +2992,32 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>59700</v>
+      </c>
+      <c r="F42" s="3">
         <v>86600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>91200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>53900</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2848,11 +3027,11 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2890,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3146,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3300,14 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,8 +3377,14 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,26 +3454,32 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F48" s="3">
         <v>9300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>8700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>8500</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3274,11 +3489,11 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -3316,8 +3531,14 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,26 +3762,32 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F52" s="3">
         <v>1400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3558,11 +3797,11 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3600,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>353500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>354700</v>
+      </c>
+      <c r="F54" s="3">
         <v>372600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>376200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>334100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>331400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>326100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>330700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>312500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>298100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>302900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>299500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>299600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>293400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>297200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>301800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>290200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>284200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>282900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>286300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>283900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>274100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>274500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,13 +4055,15 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -3810,11 +4071,11 @@
       <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
+      <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
@@ -3822,11 +4083,11 @@
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -3867,8 +4128,14 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,8 +4205,14 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3964,14 +4237,14 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -4009,8 +4282,14 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,8 +4359,14 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,26 +4744,32 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>254900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>255000</v>
+      </c>
+      <c r="F66" s="3">
         <v>273800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>318400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>277500</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4464,11 +4779,11 @@
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
-      <c r="M66" s="3">
-        <v>0</v>
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
@@ -4506,8 +4821,14 @@
       <c r="Y66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,26 +5158,32 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>53300</v>
+      </c>
+      <c r="F72" s="3">
         <v>52600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>50500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>49600</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4846,11 +5193,11 @@
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3">
-        <v>0</v>
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
@@ -4888,8 +5235,14 @@
       <c r="Y72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>99700</v>
+      </c>
+      <c r="F76" s="3">
         <v>98800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>57800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>56600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>56900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>55600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>54500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>53000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>53400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>53100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>52200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>51100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>50700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>49400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>48500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>47500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>46900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>45000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>45700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>46000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>45300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>45300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,102 +5620,114 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>4</v>
       </c>
@@ -5348,11 +5737,11 @@
       <c r="K81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
+      <c r="L81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
@@ -5390,8 +5779,14 @@
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5426,16 +5823,16 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -5446,11 +5843,11 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5488,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,26 +6270,32 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>900</v>
+      </c>
+      <c r="F89" s="3">
         <v>2900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>700</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>4</v>
       </c>
@@ -5872,11 +6305,11 @@
       <c r="K89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -5914,8 +6347,14 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,26 +6380,28 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>-300</v>
       </c>
       <c r="F91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5970,11 +6411,11 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6012,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,26 +6607,32 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-11200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-5900</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6183,11 +6642,11 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -6225,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,26 +6717,28 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-900</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -6323,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,26 +7021,32 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-4900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>42600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
@@ -6565,11 +7056,11 @@
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -6607,8 +7098,14 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,26 +7175,32 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>32800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3200</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>4</v>
       </c>
@@ -6707,11 +7210,11 @@
       <c r="K102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -6747,6 +7250,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CULL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CULL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>CULL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,140 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>4100</v>
       </c>
       <c r="E8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F8" s="3">
         <v>3400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3300</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
@@ -807,8 +811,8 @@
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,29 +1392,30 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
       </c>
       <c r="G17" s="3">
+        <v>400</v>
+      </c>
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1401,8 +1428,8 @@
       <c r="M17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
+      <c r="N17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
@@ -1443,29 +1470,32 @@
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>3800</v>
       </c>
       <c r="E18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F18" s="3">
         <v>3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2800</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1478,8 +1508,8 @@
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
@@ -1520,8 +1550,11 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,29 +1582,30 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-2100</v>
       </c>
       <c r="E20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-3600</v>
       </c>
       <c r="G20" s="3">
         <v>-3600</v>
       </c>
       <c r="H20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1800</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1584,71 +1618,74 @@
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1300</v>
       </c>
       <c r="S20" s="3">
         <v>1300</v>
       </c>
       <c r="T20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U20" s="3">
         <v>1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>1100</v>
       </c>
       <c r="Z20" s="3">
         <v>1100</v>
       </c>
       <c r="AA20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>1700</v>
       </c>
       <c r="E21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1000</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1200</v>
       </c>
       <c r="N23" s="3">
         <v>1200</v>
       </c>
       <c r="O23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1300</v>
       </c>
       <c r="S23" s="3">
         <v>1300</v>
       </c>
       <c r="T23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U23" s="3">
         <v>1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>1100</v>
       </c>
       <c r="Z23" s="3">
         <v>1100</v>
       </c>
       <c r="AA23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1866,31 +1912,31 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>300</v>
@@ -1899,34 +1945,34 @@
         <v>300</v>
       </c>
       <c r="P24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
       </c>
       <c r="R24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S24" s="3">
         <v>300</v>
       </c>
       <c r="T24" s="3">
+        <v>300</v>
+      </c>
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>400</v>
       </c>
       <c r="Z24" s="3">
         <v>400</v>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,29 +2060,32 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>1300</v>
       </c>
       <c r="E26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2046,8 +2098,8 @@
       <c r="M26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
+      <c r="N26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
@@ -2088,29 +2140,32 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>1300</v>
       </c>
       <c r="E27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
-        <v>1500</v>
-      </c>
       <c r="H27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>4</v>
       </c>
@@ -2123,8 +2178,8 @@
       <c r="M27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
+      <c r="N27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
@@ -2165,8 +2220,11 @@
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,29 +2540,32 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>2100</v>
       </c>
       <c r="E32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F32" s="3">
         <v>2300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>3600</v>
       </c>
       <c r="G32" s="3">
         <v>3600</v>
       </c>
       <c r="H32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I32" s="3">
         <v>1800</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2508,71 +2578,74 @@
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-1300</v>
       </c>
       <c r="S32" s="3">
         <v>-1300</v>
       </c>
       <c r="T32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="U32" s="3">
         <v>-1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-1100</v>
       </c>
       <c r="Z32" s="3">
         <v>-1100</v>
       </c>
       <c r="AA32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>1300</v>
       </c>
       <c r="E33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
-        <v>1500</v>
-      </c>
       <c r="H33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2585,8 +2658,8 @@
       <c r="M33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
+      <c r="N33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -2627,8 +2700,11 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,29 +2780,32 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>1300</v>
       </c>
       <c r="E35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
-        <v>1500</v>
-      </c>
       <c r="H35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2739,8 +2818,8 @@
       <c r="M35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
+      <c r="N35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
@@ -2781,90 +2860,96 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,29 +3007,30 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4400</v>
+        <v>3700</v>
       </c>
       <c r="E41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F41" s="3">
         <v>2200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2956,8 +3043,8 @@
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2998,29 +3085,32 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E42" s="3">
         <v>34900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>59700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>86600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>91200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>53900</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3033,8 +3123,8 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,29 +3565,32 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E48" s="3">
         <v>9600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8500</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3495,8 +3603,8 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,28 +3885,31 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1000</v>
       </c>
       <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>1000</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -3803,8 +3923,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>384000</v>
+      </c>
+      <c r="E54" s="3">
         <v>353500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>354700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>372600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>376200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>334100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>331400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>326100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>330700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>312500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>298100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>302900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>299500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>299600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>293400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>297200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>301800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>290200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>284200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>282900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>286300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>283900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>274100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>274500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4066,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -4077,8 +4208,8 @@
       <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+      <c r="I57" s="3">
+        <v>100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -4089,8 +4220,8 @@
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4243,11 +4380,11 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,29 +4905,32 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>285300</v>
+      </c>
+      <c r="E66" s="3">
         <v>254900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>255000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>273800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>318400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>277500</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4785,8 +4943,8 @@
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
+      <c r="N66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,29 +5335,32 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E72" s="3">
         <v>53400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>53300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>52600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>50500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>49600</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5199,8 +5373,8 @@
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
+      <c r="N72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E76" s="3">
         <v>98600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>99700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>98800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>57800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>56600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>56900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>55600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>54500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>53000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>53400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>53100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>52200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>51100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>50700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>49400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>48500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>47500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>46900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>45000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>45700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>46000</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>45300</v>
       </c>
       <c r="Z76" s="3">
         <v>45300</v>
       </c>
       <c r="AA76" s="3">
+        <v>45300</v>
+      </c>
+      <c r="AB76" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,111 +5815,117 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>1300</v>
       </c>
       <c r="E81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
-        <v>1500</v>
-      </c>
       <c r="H81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>4</v>
       </c>
@@ -5743,8 +5938,8 @@
       <c r="M81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
+      <c r="N81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
@@ -5785,8 +5980,11 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5829,14 +6028,14 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
@@ -5849,8 +6048,8 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,29 +6490,32 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>4</v>
       </c>
@@ -6311,8 +6528,8 @@
       <c r="M89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6394,17 +6615,17 @@
         <v>-300</v>
       </c>
       <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6417,8 +6638,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,29 +6840,32 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-45900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-23300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5900</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6648,8 +6878,8 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,28 +6952,29 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-900</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-900</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,29 +7270,32 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-18600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>42600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
@@ -7062,8 +7308,8 @@
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,29 +7430,32 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-23300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-27800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>32800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3200</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>4</v>
       </c>
@@ -7216,8 +7468,8 @@
       <c r="M102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CULL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CULL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
   <si>
     <t>CULL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,147 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>4100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3300</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
@@ -814,8 +818,8 @@
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -856,8 +860,11 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,32 +1419,33 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>300</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
       </c>
       <c r="H17" s="3">
+        <v>400</v>
+      </c>
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1431,8 +1458,8 @@
       <c r="N17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
+      <c r="O17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
@@ -1473,32 +1500,35 @@
       <c r="AB17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>3800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2800</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1511,8 +1541,8 @@
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -1553,8 +1583,11 @@
       <c r="AB18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,32 +1616,33 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-3600</v>
       </c>
       <c r="H20" s="3">
         <v>-3600</v>
       </c>
       <c r="I20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1800</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1621,74 +1655,77 @@
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>1300</v>
       </c>
       <c r="T20" s="3">
         <v>1300</v>
       </c>
       <c r="U20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V20" s="3">
         <v>1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>1100</v>
       </c>
       <c r="AA20" s="3">
         <v>1100</v>
       </c>
       <c r="AB20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AC20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1743,8 +1780,11 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,123 +1863,129 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1000</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1200</v>
       </c>
       <c r="O23" s="3">
         <v>1200</v>
       </c>
       <c r="P23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>1300</v>
       </c>
       <c r="T23" s="3">
         <v>1300</v>
       </c>
       <c r="U23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V23" s="3">
         <v>1200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>1100</v>
       </c>
       <c r="AA23" s="3">
         <v>1100</v>
       </c>
       <c r="AB23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AC23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
       </c>
       <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>300</v>
       </c>
       <c r="O24" s="3">
         <v>300</v>
@@ -1948,34 +1994,34 @@
         <v>300</v>
       </c>
       <c r="Q24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R24" s="3">
         <v>200</v>
       </c>
       <c r="S24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T24" s="3">
         <v>300</v>
       </c>
       <c r="U24" s="3">
+        <v>300</v>
+      </c>
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>300</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>400</v>
       </c>
       <c r="AA24" s="3">
         <v>400</v>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,32 +2112,35 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2101,8 +2153,8 @@
       <c r="N26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
+      <c r="O26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -2143,32 +2195,35 @@
       <c r="AB26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>4</v>
       </c>
@@ -2181,8 +2236,8 @@
       <c r="N27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
+      <c r="O27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -2223,8 +2278,11 @@
       <c r="AB27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,32 +2610,35 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
         <v>2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>3600</v>
       </c>
       <c r="H32" s="3">
         <v>3600</v>
       </c>
       <c r="I32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J32" s="3">
         <v>1800</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2581,74 +2651,77 @@
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-1300</v>
       </c>
       <c r="T32" s="3">
         <v>-1300</v>
       </c>
       <c r="U32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="V32" s="3">
         <v>-1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>-1100</v>
       </c>
       <c r="AA32" s="3">
         <v>-1100</v>
       </c>
       <c r="AB32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2661,8 +2734,8 @@
       <c r="N33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
+      <c r="O33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
@@ -2703,8 +2776,11 @@
       <c r="AB33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,32 +2859,35 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2821,8 +2900,8 @@
       <c r="N35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
+      <c r="O35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
@@ -2863,93 +2942,99 @@
       <c r="AB35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,32 +3094,33 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
@@ -3046,8 +3133,8 @@
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -3088,32 +3175,35 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E42" s="3">
         <v>21100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>34900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>59700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>86600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>91200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>53900</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3126,8 +3216,8 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -3168,8 +3258,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3507,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,8 +3590,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,32 +3673,35 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E48" s="3">
         <v>9800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8500</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3606,8 +3714,8 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3648,8 +3756,11 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,31 +4005,34 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E52" s="3">
         <v>2200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1000</v>
       </c>
       <c r="I52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>1000</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -3926,8 +4046,8 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>406100</v>
+      </c>
+      <c r="E54" s="3">
         <v>384000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>353500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>354700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>372600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>376200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>334100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>331400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>326100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>330700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>312500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>298100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>302900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>299500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>299600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>293400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>297200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>301800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>290200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>284200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>282900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>286300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>283900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>274100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>274500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4318,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4200,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -4211,8 +4342,8 @@
       <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="J57" s="3">
+        <v>100</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
@@ -4223,8 +4354,8 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -4268,8 +4399,11 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,8 +4482,11 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4383,11 +4520,11 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -4428,8 +4565,11 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,8 +4648,11 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,32 +5063,35 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>307600</v>
+      </c>
+      <c r="E66" s="3">
         <v>285300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>254900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>255000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>273800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>318400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>277500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4946,8 +5104,8 @@
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O66" s="3">
-        <v>0</v>
+      <c r="O66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
@@ -4988,8 +5146,11 @@
       <c r="AB66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,32 +5509,35 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E72" s="3">
         <v>54700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>53400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>53300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>52600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>50500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>49600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5376,8 +5550,8 @@
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
+      <c r="O72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
@@ -5418,8 +5592,11 @@
       <c r="AB72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E76" s="3">
         <v>98700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>98600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>99700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>98800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>57800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>56600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>56900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>55600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>54500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>53000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>53400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>53100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>52200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>51100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>50700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>49400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>48500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>47500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>46900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>45000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>45700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>46000</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>45300</v>
       </c>
       <c r="AA76" s="3">
         <v>45300</v>
       </c>
       <c r="AB76" s="3">
+        <v>45300</v>
+      </c>
+      <c r="AC76" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,117 +6007,123 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>4</v>
       </c>
@@ -5941,8 +6136,8 @@
       <c r="N81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
+      <c r="O81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
@@ -5983,8 +6178,11 @@
       <c r="AB81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6031,14 +6230,14 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
@@ -6051,8 +6250,8 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,32 +6707,35 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>700</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>4</v>
       </c>
@@ -6531,8 +6748,8 @@
       <c r="N89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -6573,8 +6790,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,13 +6823,14 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
         <v>-300</v>
@@ -6618,17 +6839,17 @@
         <v>-300</v>
       </c>
       <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6641,8 +6862,8 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,32 +7070,35 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-45900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5900</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6881,8 +7111,8 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6962,22 +7196,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-900</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-900</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,32 +7516,35 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E100" s="3">
         <v>29900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-18600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>42600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
@@ -7311,8 +7557,8 @@
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -7353,8 +7599,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,32 +7682,35 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-23300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-27800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>32800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>4</v>
       </c>
@@ -7471,8 +7723,8 @@
       <c r="N102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -7511,6 +7763,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CULL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CULL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>CULL</t>
   </si>
@@ -785,11 +785,11 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>4200</v>
       </c>
       <c r="E8" s="3">
-        <v>4100</v>
+        <v>7700</v>
       </c>
       <c r="F8" s="3">
         <v>3600</v>
@@ -1425,11 +1425,11 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>400</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1508,11 +1508,11 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>3800</v>
       </c>
       <c r="E18" s="3">
-        <v>3800</v>
+        <v>7100</v>
       </c>
       <c r="F18" s="3">
         <v>3300</v>
@@ -1622,11 +1622,11 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-2500</v>
       </c>
       <c r="E20" s="3">
-        <v>-2100</v>
+        <v>-4200</v>
       </c>
       <c r="F20" s="3">
         <v>-2000</v>
@@ -1705,11 +1705,11 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>1400</v>
       </c>
       <c r="E21" s="3">
-        <v>1700</v>
+        <v>3200</v>
       </c>
       <c r="F21" s="3">
         <v>1400</v>
@@ -1875,7 +1875,7 @@
         <v>1300</v>
       </c>
       <c r="E23" s="3">
-        <v>1600</v>
+        <v>2900</v>
       </c>
       <c r="F23" s="3">
         <v>1300</v>
@@ -1958,7 +1958,7 @@
         <v>400</v>
       </c>
       <c r="E24" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
@@ -2120,11 +2120,11 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>900</v>
       </c>
       <c r="E26" s="3">
-        <v>1300</v>
+        <v>2300</v>
       </c>
       <c r="F26" s="3">
         <v>1000</v>
@@ -2203,11 +2203,11 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>900</v>
       </c>
       <c r="E27" s="3">
-        <v>1300</v>
+        <v>2300</v>
       </c>
       <c r="F27" s="3">
         <v>1000</v>
@@ -2618,11 +2618,11 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>2500</v>
       </c>
       <c r="E32" s="3">
-        <v>2100</v>
+        <v>4200</v>
       </c>
       <c r="F32" s="3">
         <v>2000</v>
@@ -2701,11 +2701,11 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>900</v>
       </c>
       <c r="E33" s="3">
-        <v>1300</v>
+        <v>2300</v>
       </c>
       <c r="F33" s="3">
         <v>1000</v>
@@ -2867,11 +2867,11 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>900</v>
       </c>
       <c r="E35" s="3">
-        <v>1300</v>
+        <v>2300</v>
       </c>
       <c r="F35" s="3">
         <v>1000</v>
@@ -6103,11 +6103,11 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>900</v>
       </c>
       <c r="E81" s="3">
-        <v>1300</v>
+        <v>2300</v>
       </c>
       <c r="F81" s="3">
         <v>1000</v>
@@ -6221,7 +6221,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -6719,7 +6719,7 @@
         <v>2200</v>
       </c>
       <c r="E89" s="3">
-        <v>2100</v>
+        <v>3100</v>
       </c>
       <c r="F89" s="3">
         <v>1000</v>
@@ -6833,7 +6833,7 @@
         <v>-400</v>
       </c>
       <c r="E91" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="F91" s="3">
         <v>-300</v>
@@ -7082,7 +7082,7 @@
         <v>-19700</v>
       </c>
       <c r="E94" s="3">
-        <v>-45900</v>
+        <v>-69100</v>
       </c>
       <c r="F94" s="3">
         <v>-23300</v>
@@ -7196,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="F96" s="3">
         <v>-900</v>
@@ -7528,7 +7528,7 @@
         <v>21500</v>
       </c>
       <c r="E100" s="3">
-        <v>29900</v>
+        <v>28900</v>
       </c>
       <c r="F100" s="3">
         <v>-1000</v>
@@ -7694,7 +7694,7 @@
         <v>4000</v>
       </c>
       <c r="E102" s="3">
-        <v>-13900</v>
+        <v>-37200</v>
       </c>
       <c r="F102" s="3">
         <v>-23300</v>

--- a/AAII_Financials/Quarterly/CULL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CULL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
   <si>
     <t>CULL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,159 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F8" s="3">
         <v>4200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>7700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3400</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>6700</v>
       </c>
       <c r="J8" s="3">
         <v>3300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
+      <c r="K8" s="3">
+        <v>6700</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3300</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
@@ -821,11 +828,11 @@
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -863,8 +870,14 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -946,8 +959,14 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,38 +1471,40 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1461,11 +1514,11 @@
       <c r="O17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
+      <c r="P17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R17" s="3">
         <v>0</v>
@@ -1503,38 +1556,44 @@
       <c r="AC17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E18" s="3">
         <v>3800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G18" s="3">
         <v>7100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>5700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1544,11 +1603,11 @@
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
@@ -1586,8 +1645,14 @@
       <c r="AC18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1682,10 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,29 +1693,29 @@
         <v>-2500</v>
       </c>
       <c r="E20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-4200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-3600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1658,11 +1725,11 @@
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1100</v>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R20" s="3">
         <v>1200</v>
@@ -1671,67 +1738,73 @@
         <v>1100</v>
       </c>
       <c r="T20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V20" s="3">
         <v>1300</v>
-      </c>
-      <c r="U20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="V20" s="3">
-        <v>1200</v>
       </c>
       <c r="W20" s="3">
         <v>1300</v>
       </c>
       <c r="X20" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Y20" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="Z20" s="3">
         <v>1000</v>
       </c>
       <c r="AA20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC20" s="3">
         <v>1100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>1100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E21" s="3">
-        <v>3200</v>
+        <v>1100</v>
       </c>
       <c r="F21" s="3">
         <v>1400</v>
       </c>
       <c r="G21" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I21" s="3">
         <v>800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1783,8 +1856,14 @@
       <c r="AC21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,52 +1945,58 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E23" s="3">
-        <v>2900</v>
+        <v>1100</v>
       </c>
       <c r="F23" s="3">
         <v>1300</v>
       </c>
       <c r="G23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>900</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1000</v>
       </c>
       <c r="O23" s="3">
         <v>1200</v>
       </c>
       <c r="P23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1100</v>
       </c>
       <c r="R23" s="3">
         <v>1200</v>
@@ -1920,63 +2005,69 @@
         <v>1100</v>
       </c>
       <c r="T23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V23" s="3">
         <v>1300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>1300</v>
-      </c>
-      <c r="V23" s="3">
-        <v>1200</v>
       </c>
       <c r="W23" s="3">
         <v>1300</v>
       </c>
       <c r="X23" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Y23" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="Z23" s="3">
         <v>1000</v>
       </c>
       <c r="AA23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC23" s="3">
         <v>1100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>1100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
       </c>
       <c r="L24" s="3">
         <v>200</v>
@@ -1991,34 +2082,34 @@
         <v>300</v>
       </c>
       <c r="P24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q24" s="3">
         <v>300</v>
       </c>
       <c r="R24" s="3">
+        <v>300</v>
+      </c>
+      <c r="S24" s="3">
+        <v>300</v>
+      </c>
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>800</v>
-      </c>
-      <c r="X24" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>400</v>
       </c>
       <c r="Z24" s="3">
         <v>300</v>
@@ -2027,13 +2118,19 @@
         <v>400</v>
       </c>
       <c r="AB24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AC24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,38 +2212,44 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>900</v>
+      </c>
+      <c r="G26" s="3">
         <v>2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2156,11 +2259,11 @@
       <c r="O26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
+      <c r="P26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
@@ -2198,38 +2301,44 @@
       <c r="AC26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>4</v>
       </c>
@@ -2239,11 +2348,11 @@
       <c r="O27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
+      <c r="P27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
@@ -2281,8 +2390,14 @@
       <c r="AC27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2746,14 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2622,29 +2761,29 @@
         <v>2500</v>
       </c>
       <c r="E32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G32" s="3">
         <v>4200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>3600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2654,11 +2793,11 @@
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-1100</v>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R32" s="3">
         <v>-1200</v>
@@ -2667,67 +2806,73 @@
         <v>-1100</v>
       </c>
       <c r="T32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V32" s="3">
         <v>-1300</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-1200</v>
       </c>
       <c r="W32" s="3">
         <v>-1300</v>
       </c>
       <c r="X32" s="3">
-        <v>-1000</v>
+        <v>-1200</v>
       </c>
       <c r="Y32" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="Z32" s="3">
         <v>-1000</v>
       </c>
       <c r="AA32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2737,11 +2882,11 @@
       <c r="O33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
+      <c r="P33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
@@ -2779,8 +2924,14 @@
       <c r="AC33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,38 +3013,44 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2903,11 +3060,11 @@
       <c r="O35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
+      <c r="P35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
@@ -2945,96 +3102,108 @@
       <c r="AC35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,38 +3266,40 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F41" s="3">
         <v>5000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
@@ -3136,11 +3309,11 @@
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -3178,38 +3351,44 @@
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>30200</v>
+      </c>
+      <c r="F42" s="3">
         <v>23700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>21100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>34900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>59700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>86600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>91200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>53900</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3219,11 +3398,11 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -3261,8 +3440,14 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3529,14 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3618,14 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3510,8 +3707,14 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,8 +3796,14 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,38 +3885,44 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F48" s="3">
         <v>10100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>9800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>9600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>9500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>9300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>8700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>8500</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3717,11 +3932,11 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3759,8 +3974,14 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4020,26 +4259,26 @@
         <v>2200</v>
       </c>
       <c r="F52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H52" s="3">
         <v>1700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4049,11 +4288,11 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -4091,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>417500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>423200</v>
+      </c>
+      <c r="F54" s="3">
         <v>406100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>384000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>353500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>354700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>372600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>376200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>334100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>331400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>326100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>330700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>312500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>298100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>302900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>299500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>299600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>293400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>297200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>301800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>290200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>284200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>282900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>286300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>283900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>274100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>274500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,25 +4578,27 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -4345,11 +4606,11 @@
       <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>100</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
@@ -4357,11 +4618,11 @@
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -4402,8 +4663,14 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,8 +4752,14 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4523,14 +4796,14 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -4568,8 +4841,14 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,8 +4930,14 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4734,8 +5019,14 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4817,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,38 +5375,44 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>323000</v>
+      </c>
+      <c r="F66" s="3">
         <v>307600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>285300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>254900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>255000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>273800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>318400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>277500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
@@ -5107,11 +5422,11 @@
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>0</v>
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R66" s="3">
         <v>0</v>
@@ -5149,8 +5464,14 @@
       <c r="AC66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,38 +5853,44 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>56600</v>
+      </c>
+      <c r="F72" s="3">
         <v>55600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>54700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>53400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>53300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>52600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>50500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>49600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5553,11 +5900,11 @@
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>0</v>
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R72" s="3">
         <v>0</v>
@@ -5595,8 +5942,14 @@
       <c r="AC72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>100200</v>
+      </c>
+      <c r="F76" s="3">
         <v>98500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>98700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>98600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>99700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>98800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>57800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>56600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>56900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>55600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>54500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>53000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>53400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>53100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>52200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>51100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>50700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>49400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>48500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>47500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>46900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>45000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>45700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>46000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>45300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>45300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,126 +6387,138 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>4</v>
       </c>
@@ -6139,11 +6528,11 @@
       <c r="O81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
+      <c r="P81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
@@ -6181,8 +6570,14 @@
       <c r="AC81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6221,28 +6618,28 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
+        <v>100</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -6253,11 +6650,11 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -6295,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,38 +7137,44 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>500</v>
+      </c>
+      <c r="F89" s="3">
         <v>2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>3100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>4</v>
       </c>
@@ -6751,11 +7184,11 @@
       <c r="O89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -6793,8 +7226,14 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,38 +7263,40 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-300</v>
       </c>
       <c r="G91" s="3">
         <v>-300</v>
       </c>
       <c r="H91" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
       </c>
       <c r="J91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6865,11 +7306,11 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -6907,8 +7348,14 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,38 +7526,44 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-19700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-69100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-23300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-10100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-11200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
@@ -7114,11 +7573,11 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -7156,8 +7615,14 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,38 +7652,40 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-900</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -7270,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,38 +8004,44 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F100" s="3">
         <v>21500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>28900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-18600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-4900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>42600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
@@ -7560,11 +8051,11 @@
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -7602,8 +8093,14 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,38 +8182,44 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F102" s="3">
         <v>4000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-37200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-23300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-27800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>32800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>4</v>
       </c>
@@ -7726,11 +8229,11 @@
       <c r="O102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -7766,6 +8269,12 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CULL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CULL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
   <si>
     <t>CULL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,167 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E8" s="3">
         <v>4700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3300</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
@@ -834,8 +838,8 @@
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -876,8 +880,11 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,41 +1499,42 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="3">
         <v>800</v>
       </c>
       <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
       </c>
       <c r="K17" s="3">
+        <v>400</v>
+      </c>
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1520,8 +1547,8 @@
       <c r="Q17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
+      <c r="R17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
@@ -1562,41 +1589,44 @@
       <c r="AE17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E18" s="3">
         <v>3900</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3800</v>
       </c>
       <c r="F18" s="3">
         <v>3800</v>
       </c>
       <c r="G18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H18" s="3">
         <v>7100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1609,8 +1639,8 @@
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
+      <c r="R18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
@@ -1651,8 +1681,11 @@
       <c r="AE18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1693,32 +1727,32 @@
         <v>-2500</v>
       </c>
       <c r="E20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-3600</v>
       </c>
       <c r="K20" s="3">
         <v>-3600</v>
       </c>
       <c r="L20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1800</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1731,83 +1765,86 @@
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1100</v>
-      </c>
-      <c r="V20" s="3">
-        <v>1300</v>
       </c>
       <c r="W20" s="3">
         <v>1300</v>
       </c>
       <c r="X20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y20" s="3">
         <v>1200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1000</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>1100</v>
       </c>
       <c r="AD20" s="3">
         <v>1100</v>
       </c>
       <c r="AE20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AF20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E21" s="3">
         <v>1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1862,8 +1899,11 @@
       <c r="AE21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,97 +1991,103 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1200</v>
       </c>
       <c r="R23" s="3">
         <v>1200</v>
       </c>
       <c r="S23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T23" s="3">
         <v>1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>1300</v>
       </c>
       <c r="W23" s="3">
         <v>1300</v>
       </c>
       <c r="X23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y23" s="3">
         <v>1200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1000</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>1100</v>
       </c>
       <c r="AD23" s="3">
         <v>1100</v>
       </c>
       <c r="AE23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AF23" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2049,43 +2095,43 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>300</v>
       </c>
       <c r="R24" s="3">
         <v>300</v>
@@ -2094,34 +2140,34 @@
         <v>300</v>
       </c>
       <c r="T24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U24" s="3">
         <v>200</v>
       </c>
       <c r="V24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W24" s="3">
         <v>300</v>
       </c>
       <c r="X24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y24" s="3">
         <v>200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>300</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>400</v>
       </c>
       <c r="AD24" s="3">
         <v>400</v>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,8 +2267,11 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2227,32 +2279,32 @@
         <v>1000</v>
       </c>
       <c r="E26" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F26" s="3">
         <v>900</v>
       </c>
       <c r="G26" s="3">
+        <v>900</v>
+      </c>
+      <c r="H26" s="3">
         <v>2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2265,8 +2317,8 @@
       <c r="Q26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
+      <c r="R26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
@@ -2307,8 +2359,11 @@
       <c r="AE26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2319,29 +2374,29 @@
         <v>1000</v>
       </c>
       <c r="F27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>4</v>
       </c>
@@ -2354,8 +2409,8 @@
       <c r="Q27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
+      <c r="R27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
@@ -2396,8 +2451,11 @@
       <c r="AE27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2761,32 +2831,32 @@
         <v>2500</v>
       </c>
       <c r="E32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F32" s="3">
         <v>2700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>3600</v>
       </c>
       <c r="K32" s="3">
         <v>3600</v>
       </c>
       <c r="L32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M32" s="3">
         <v>1800</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2799,50 +2869,53 @@
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-1300</v>
       </c>
       <c r="W32" s="3">
         <v>-1300</v>
       </c>
       <c r="X32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>-1100</v>
       </c>
       <c r="AD32" s="3">
         <v>-1100</v>
       </c>
       <c r="AE32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AF32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2853,29 +2926,29 @@
         <v>1000</v>
       </c>
       <c r="F33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2888,8 +2961,8 @@
       <c r="Q33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
+      <c r="R33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
@@ -2930,8 +3003,11 @@
       <c r="AE33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,8 +3095,11 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3031,29 +3110,29 @@
         <v>1000</v>
       </c>
       <c r="F35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>4</v>
       </c>
@@ -3066,8 +3145,8 @@
       <c r="Q35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
+      <c r="R35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
@@ -3108,102 +3187,108 @@
       <c r="AE35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,41 +3354,42 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E41" s="3">
         <v>2500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
@@ -3315,8 +3402,8 @@
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -3357,41 +3444,44 @@
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E42" s="3">
         <v>25200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>30200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>23700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>21100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>34900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>59700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>86600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>91200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>53900</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3404,8 +3494,8 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3802,8 +3904,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,41 +3996,44 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E48" s="3">
         <v>10800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8500</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3938,8 +4046,8 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,40 +4364,43 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E52" s="3">
         <v>2300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1000</v>
       </c>
       <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>1000</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -4294,8 +4414,8 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>417900</v>
+      </c>
+      <c r="E54" s="3">
         <v>417500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>423200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>406100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>384000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>353500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>354700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>372600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>376200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>334100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>331400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>326100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>330700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>312500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>298100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>302900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>299500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>299600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>293400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>297200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>301800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>290200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>284200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>282900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>286300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>283900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>274100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>274500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>258800</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4592,7 +4723,7 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -4601,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -4612,8 +4743,8 @@
       <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="M57" s="3">
+        <v>100</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
@@ -4624,8 +4755,8 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4758,8 +4892,11 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4802,11 +4939,11 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -4847,8 +4984,11 @@
       <c r="AE59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4936,8 +5076,11 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,41 +5536,44 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>316100</v>
+      </c>
+      <c r="E66" s="3">
         <v>317000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>323000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>307600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>285300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>254900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>255000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>273800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>318400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>277500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
@@ -5428,8 +5586,8 @@
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R66" s="3">
-        <v>0</v>
+      <c r="R66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S66" s="3">
         <v>0</v>
@@ -5470,8 +5628,11 @@
       <c r="AE66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,41 +6030,44 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E72" s="3">
         <v>56400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>56600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>55600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>54700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>53400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>53300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>52600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>50500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>49600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5906,8 +6080,8 @@
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
@@ -5948,8 +6122,11 @@
       <c r="AE72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E76" s="3">
         <v>100600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>100200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>98500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>98700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>98600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>99700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>98800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>57800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>56600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>56900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>55600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>54500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>53000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>53400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>53100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>52200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>51100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>50700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>49400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>48500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>47500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>46900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>45000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>45700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>46000</v>
-      </c>
-      <c r="AC76" s="3">
-        <v>45300</v>
       </c>
       <c r="AD76" s="3">
         <v>45300</v>
       </c>
       <c r="AE76" s="3">
+        <v>45300</v>
+      </c>
+      <c r="AF76" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,102 +6582,108 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6499,29 +6694,29 @@
         <v>1000</v>
       </c>
       <c r="F81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>4</v>
       </c>
@@ -6534,8 +6729,8 @@
       <c r="Q81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
+      <c r="R81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
@@ -6576,8 +6771,11 @@
       <c r="AE81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6618,16 +6817,16 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -6636,14 +6835,14 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
@@ -6656,8 +6855,8 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7152,32 +7369,32 @@
         <v>1500</v>
       </c>
       <c r="E89" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>4</v>
       </c>
@@ -7190,8 +7407,8 @@
       <c r="Q89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -7232,8 +7449,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,22 +7485,23 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-300</v>
       </c>
       <c r="H91" s="3">
         <v>-300</v>
@@ -7289,17 +7510,17 @@
         <v>-300</v>
       </c>
       <c r="J91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
@@ -7312,8 +7533,8 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,41 +7759,44 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-69100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
@@ -7579,8 +7809,8 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,40 +7887,41 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-900</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-900</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-900</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,41 +8253,44 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>16100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>21500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>28900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-18600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>42600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
@@ -8057,8 +8303,8 @@
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -8099,8 +8345,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,41 +8437,44 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-37200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-23300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-27800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>32800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>4</v>
       </c>
@@ -8235,8 +8487,8 @@
       <c r="Q102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
+      <c r="R102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
